--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.75991167140022</v>
+        <v>89.72161026617037</v>
       </c>
       <c r="D2" t="n">
-        <v>9.261002974868035</v>
+        <v>9.086821695841</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.5826810773397</v>
+        <v>89.10448663548263</v>
       </c>
       <c r="D3" t="n">
-        <v>9.395468484237577</v>
+        <v>10.02131847558866</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.33993638567738</v>
+        <v>86.29223595233258</v>
       </c>
       <c r="D4" t="n">
-        <v>10.72155287590041</v>
+        <v>10.41007969382079</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.14760323921629</v>
+        <v>88.0781735939953</v>
       </c>
       <c r="D5" t="n">
-        <v>10.82473624694114</v>
+        <v>8.336647661669373</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.24458174461186</v>
+        <v>86.86224869626098</v>
       </c>
       <c r="D6" t="n">
-        <v>9.800521878561204</v>
+        <v>10.32529837306344</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.49427213290781</v>
+        <v>84.99963072218297</v>
       </c>
       <c r="D7" t="n">
-        <v>8.893373958297685</v>
+        <v>10.53528778214043</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.77986375533779</v>
+        <v>83.21633165302897</v>
       </c>
       <c r="D8" t="n">
-        <v>10.46341738334828</v>
+        <v>10.81119114612447</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.77840572083915</v>
+        <v>83.82072922788434</v>
       </c>
       <c r="D9" t="n">
-        <v>10.74386297004742</v>
+        <v>8.992588525916057</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.15544441244343</v>
+        <v>82.73615704180729</v>
       </c>
       <c r="D10" t="n">
-        <v>9.980169111582734</v>
+        <v>9.400797847429402</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.78220956155292</v>
+        <v>80.44671379098129</v>
       </c>
       <c r="D11" t="n">
-        <v>9.757214087575914</v>
+        <v>9.661341727497909</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.99241519396442</v>
+        <v>78.32817988937916</v>
       </c>
       <c r="D12" t="n">
-        <v>10.73737828628994</v>
+        <v>9.058314022451258</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.49315440216361</v>
+        <v>79.45983899699979</v>
       </c>
       <c r="D13" t="n">
-        <v>11.65124183955479</v>
+        <v>8.657872787651044</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.34417387837814</v>
+        <v>78.44607020591407</v>
       </c>
       <c r="D14" t="n">
-        <v>12.11206345042735</v>
+        <v>10.41445082061655</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.67203375181798</v>
+        <v>77.56032535366269</v>
       </c>
       <c r="D15" t="n">
-        <v>11.32667977482728</v>
+        <v>9.879124436800026</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>73.85060459504432</v>
+        <v>74.57191469394581</v>
       </c>
       <c r="D16" t="n">
-        <v>10.81099585463451</v>
+        <v>11.42126181285931</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.1370390175441</v>
+        <v>77.18286947374285</v>
       </c>
       <c r="D17" t="n">
-        <v>11.68643480830496</v>
+        <v>9.625894240759267</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.9372155747926</v>
+        <v>73.97564523133271</v>
       </c>
       <c r="D18" t="n">
-        <v>9.479160936325034</v>
+        <v>8.756180770394616</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.01002064849405</v>
+        <v>70.92503395939248</v>
       </c>
       <c r="D19" t="n">
-        <v>9.790253022141759</v>
+        <v>10.47011992709874</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.49607126376513</v>
+        <v>70.90013737178391</v>
       </c>
       <c r="D20" t="n">
-        <v>11.26253304672896</v>
+        <v>9.154136267514014</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.7764281124723</v>
+        <v>70.82696278484028</v>
       </c>
       <c r="D21" t="n">
-        <v>11.09914996638309</v>
+        <v>10.65873555409054</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.42338410214214</v>
+        <v>70.14106936947559</v>
       </c>
       <c r="D22" t="n">
-        <v>9.689417788621677</v>
+        <v>9.756738424044341</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.06672675942463</v>
+        <v>67.47004059679372</v>
       </c>
       <c r="D23" t="n">
-        <v>10.351671906916</v>
+        <v>9.666516247020501</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.93737457025171</v>
+        <v>68.69014544750702</v>
       </c>
       <c r="D24" t="n">
-        <v>9.099167397690222</v>
+        <v>10.45429970328503</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.89701071844233</v>
+        <v>69.46061286265164</v>
       </c>
       <c r="D25" t="n">
-        <v>10.03273666277761</v>
+        <v>10.30122490228178</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.83000693134233</v>
+        <v>66.41053069620899</v>
       </c>
       <c r="D26" t="n">
-        <v>11.39755802470644</v>
+        <v>9.596187049016697</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.3961483377697</v>
+        <v>64.52881181759568</v>
       </c>
       <c r="D27" t="n">
-        <v>11.02820200733624</v>
+        <v>10.59349638813207</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.86211192795449</v>
+        <v>60.93468909502553</v>
       </c>
       <c r="D28" t="n">
-        <v>9.809706126110436</v>
+        <v>10.05131777266672</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.5170243793704</v>
+        <v>64.47964524774406</v>
       </c>
       <c r="D29" t="n">
-        <v>10.24642243935621</v>
+        <v>9.354008231946713</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.06951324093728</v>
+        <v>61.47674240397694</v>
       </c>
       <c r="D30" t="n">
-        <v>9.699185163680141</v>
+        <v>8.949639256903067</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.74807435719109</v>
+        <v>60.7738422143083</v>
       </c>
       <c r="D31" t="n">
-        <v>10.20739616825499</v>
+        <v>8.846489403979348</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.47009295779598</v>
+        <v>60.81674369899392</v>
       </c>
       <c r="D32" t="n">
-        <v>10.90044404124367</v>
+        <v>9.821317770250889</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.19065500683226</v>
+        <v>58.78414083820949</v>
       </c>
       <c r="D33" t="n">
-        <v>9.537701865530826</v>
+        <v>9.894308571959977</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.97817634165185</v>
+        <v>58.8143996573915</v>
       </c>
       <c r="D34" t="n">
-        <v>10.00469631434609</v>
+        <v>9.926764009529377</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.27720573887639</v>
+        <v>57.25568339141136</v>
       </c>
       <c r="D35" t="n">
-        <v>10.37142992683502</v>
+        <v>9.431114757012978</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.80958791443449</v>
+        <v>56.41115790818075</v>
       </c>
       <c r="D36" t="n">
-        <v>10.59328194555296</v>
+        <v>10.07904754301032</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80816616783837</v>
+        <v>56.7003023004162</v>
       </c>
       <c r="D37" t="n">
-        <v>10.9569159840371</v>
+        <v>8.106626318379567</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.60641131929066</v>
+        <v>54.68812394649846</v>
       </c>
       <c r="D38" t="n">
-        <v>10.41728263022532</v>
+        <v>9.701844325670843</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.21897681545281</v>
+        <v>51.92062853161016</v>
       </c>
       <c r="D39" t="n">
-        <v>10.46301858092715</v>
+        <v>10.53664087653572</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.26623273214747</v>
+        <v>52.11467159950887</v>
       </c>
       <c r="D40" t="n">
-        <v>11.17000458948856</v>
+        <v>9.543357858371346</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.31135757366207</v>
+        <v>52.33329386025201</v>
       </c>
       <c r="D41" t="n">
-        <v>9.878653115542235</v>
+        <v>10.08986938265322</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.24249739835715</v>
+        <v>51.32413625454124</v>
       </c>
       <c r="D42" t="n">
-        <v>10.638979012068</v>
+        <v>10.12246119015902</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.02223955021474</v>
+        <v>48.59233564611385</v>
       </c>
       <c r="D43" t="n">
-        <v>12.1942801010914</v>
+        <v>10.49924500156425</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.15193985686473</v>
+        <v>47.99817672725765</v>
       </c>
       <c r="D44" t="n">
-        <v>9.200147387630173</v>
+        <v>9.541066220648057</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.94121048110669</v>
+        <v>47.55411389493758</v>
       </c>
       <c r="D45" t="n">
-        <v>10.52516063421823</v>
+        <v>10.01239464667387</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.77082101634943</v>
+        <v>45.95758859247854</v>
       </c>
       <c r="D46" t="n">
-        <v>9.949353413179033</v>
+        <v>9.870321353400913</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.83417314381114</v>
+        <v>42.89294768197576</v>
       </c>
       <c r="D47" t="n">
-        <v>11.02934558781671</v>
+        <v>10.36045277309467</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.2931309244974</v>
+        <v>43.33894248299261</v>
       </c>
       <c r="D48" t="n">
-        <v>9.392106113543813</v>
+        <v>9.573292941138289</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.79695415415387</v>
+        <v>42.54151940491445</v>
       </c>
       <c r="D49" t="n">
-        <v>10.12247831605582</v>
+        <v>10.30189121543161</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.96995358333893</v>
+        <v>42.88558786977111</v>
       </c>
       <c r="D50" t="n">
-        <v>9.968469350823716</v>
+        <v>9.73328662752715</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.27785335992318</v>
+        <v>40.97704438082393</v>
       </c>
       <c r="D51" t="n">
-        <v>10.64902333151615</v>
+        <v>9.82867669482734</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.1523801564087</v>
+        <v>38.68144673179026</v>
       </c>
       <c r="D52" t="n">
-        <v>9.775501163898049</v>
+        <v>10.19624963881603</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.04193289940597</v>
+        <v>39.03464921725418</v>
       </c>
       <c r="D53" t="n">
-        <v>10.58255755765674</v>
+        <v>11.18283936476853</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.18595863444627</v>
+        <v>37.29841642686301</v>
       </c>
       <c r="D54" t="n">
-        <v>9.830724991503208</v>
+        <v>10.53388867922234</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.83059986020885</v>
+        <v>37.46363532232134</v>
       </c>
       <c r="D55" t="n">
-        <v>9.443691355898263</v>
+        <v>10.37775640406781</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.80450308119237</v>
+        <v>38.28357358550313</v>
       </c>
       <c r="D56" t="n">
-        <v>11.01215545891461</v>
+        <v>9.767795059549194</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.71784370329689</v>
+        <v>35.66781409107135</v>
       </c>
       <c r="D57" t="n">
-        <v>10.70483608641846</v>
+        <v>10.82995697283621</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.9002116707582</v>
+        <v>33.24757485124307</v>
       </c>
       <c r="D58" t="n">
-        <v>11.27365114037195</v>
+        <v>9.793627989856876</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.91890102453357</v>
+        <v>33.789733863145</v>
       </c>
       <c r="D59" t="n">
-        <v>10.5535986069086</v>
+        <v>10.28536189498871</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.12668379733943</v>
+        <v>30.89491526722298</v>
       </c>
       <c r="D60" t="n">
-        <v>7.579825028909375</v>
+        <v>10.21130173312634</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.25324694649428</v>
+        <v>29.70404782469562</v>
       </c>
       <c r="D61" t="n">
-        <v>10.58856263074577</v>
+        <v>10.61497408982283</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.06790634741078</v>
+        <v>28.43198868095731</v>
       </c>
       <c r="D62" t="n">
-        <v>9.833919498870994</v>
+        <v>10.59601949508396</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.66750611360169</v>
+        <v>30.69019433520427</v>
       </c>
       <c r="D63" t="n">
-        <v>11.00509375667163</v>
+        <v>9.558472110382938</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.16357437829986</v>
+        <v>27.84243245181862</v>
       </c>
       <c r="D64" t="n">
-        <v>10.30716715265955</v>
+        <v>10.90389684502932</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.03014407558171</v>
+        <v>26.2792162228846</v>
       </c>
       <c r="D65" t="n">
-        <v>9.836167918469242</v>
+        <v>10.52009441792119</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.39134534368891</v>
+        <v>26.69820453477957</v>
       </c>
       <c r="D66" t="n">
-        <v>10.03646372860224</v>
+        <v>11.50439510084851</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.74089286151742</v>
+        <v>25.31734215804408</v>
       </c>
       <c r="D67" t="n">
-        <v>10.94599557566548</v>
+        <v>10.35220839544066</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.24622109716928</v>
+        <v>24.44924066424763</v>
       </c>
       <c r="D68" t="n">
-        <v>10.45808313537637</v>
+        <v>11.3933266928261</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.86037793616356</v>
+        <v>24.04610723776155</v>
       </c>
       <c r="D69" t="n">
-        <v>9.650931386770077</v>
+        <v>10.64635048776609</v>
       </c>
     </row>
   </sheetData>
